--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T07:59:31+00:00</t>
+    <t>2022-10-10T09:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T09:03:48+00:00</t>
+    <t>2022-11-09T12:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T12:26:10+00:00</t>
+    <t>2022-11-25T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:32:08+00:00</t>
+    <t>2022-12-08T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Id types used to identify organizations.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -385,70 +388,72 @@
       <c r="A11" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -466,72 +471,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T09:21:28+00:00</t>
+    <t>2022-12-23T09:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:32:03+00:00</t>
+    <t>2022-12-23T09:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:40:36+00:00</t>
+    <t>2022-12-23T09:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:52:16+00:00</t>
+    <t>2023-01-09T13:10:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T13:10:52+00:00</t>
+    <t>2023-02-27T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:47:29+00:00</t>
+    <t>2023-06-07T09:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-07T09:10:14+00:00</t>
+    <t>2023-08-30T12:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -284,10 +284,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-30T12:04:38+00:00</t>
+    <t>2024-06-28T12:17:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Norsk helsenett - Nilar (https://www.nhn.no)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -296,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -396,64 +402,72 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s" s="2">
         <v>32</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -471,72 +485,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:17:56+00:00</t>
+    <t>2024-07-02T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.1</t>
+    <t>1.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:23:40+00:00</t>
+    <t>2025-03-20T10:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/CodeSystem-organization-id-type-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.2</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T10:06:13+00:00</t>
+    <t>2025-09-10T06:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
